--- a/biology/Médecine/Verdunisation/Verdunisation.xlsx
+++ b/biology/Médecine/Verdunisation/Verdunisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La verdunisation est un procédé de désinfection de l'eau mis au point par Philippe Bunau-Varilla[1]. Il a lieu par chloration et fut d'abord testé dans la région de Verdun et plus particulièrement lors du siège de Verdun en septembre 1916, et pendant et après la Première Guerre mondiale dans une zone particulièrement vulnérable aux épidémies en raison du siège de Verdun, de la guerre et de la présence d'une multitude de cadavres humains et animaux dans les cours d'eau et sur les points d'eau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La verdunisation est un procédé de désinfection de l'eau mis au point par Philippe Bunau-Varilla. Il a lieu par chloration et fut d'abord testé dans la région de Verdun et plus particulièrement lors du siège de Verdun en septembre 1916, et pendant et après la Première Guerre mondiale dans une zone particulièrement vulnérable aux épidémies en raison du siège de Verdun, de la guerre et de la présence d'une multitude de cadavres humains et animaux dans les cours d'eau et sur les points d'eau.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La verdunisation consiste à injecter de l'eau de Javel diluée juste à l'entrée des pompes centrifuges. Le brassage énergique du mélange agit synergiquement avec le désinfectant, améliorant l'efficacité de la désinfection.
 La technique, d'abord testée à Paris en 1911, a été améliorée (par l'optimisation des doses de chlore) et l'automatisation, pour aboutir à l’« autojavelliseur automatique » de Bunau-Varilla.
